--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>24545</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>982</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44200</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>50000</v>
+        <v>24000</v>
       </c>
       <c r="L4" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="M4" t="n">
-        <v>50000</v>
+        <v>24545</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 30 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>50000</v>
+        <v>982</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44200</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,17 +720,17 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>50000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>50000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>50000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 30 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>50000</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44193</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,17 +864,17 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>3067</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44343</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,156 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1440</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>25</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>36000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>36000</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>25</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,17 +576,17 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M3" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1400</v>
+        <v>3067</v>
       </c>
       <c r="Q3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L4" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M4" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44200</v>
+        <v>44343</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="L5" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="M5" t="n">
-        <v>50000</v>
+        <v>36000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 30 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>50000</v>
+        <v>1440</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44221</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44193</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,17 +864,17 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44319</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M8" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>3120</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,43 +1068,115 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Americana (o)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>20</v>
       </c>
-      <c r="K10" t="n">
-        <v>36000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>36000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>36000</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="K11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>1440</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q11" t="n">
         <v>25</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L11" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M11" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,12 +1171,156 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44449</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>20</v>
+      </c>
+      <c r="K12" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>15</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>20</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,17 +576,17 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3067</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44343</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1440</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>982</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L7" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M7" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q8" t="n">
         <v>15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>75000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>75000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>75000</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3120</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44193</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5333</v>
+        <v>3067</v>
       </c>
       <c r="Q10" t="n">
         <v>15</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44449</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>982</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44343</v>
+        <v>44460</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="L11" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="M11" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1440</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44221</v>
+        <v>44343</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M12" t="n">
-        <v>24545</v>
+        <v>36000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>982</v>
+        <v>1440</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K13" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L13" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,84 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>25</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44474</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,12 +1387,84 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>25</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L2" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M2" t="n">
-        <v>30000</v>
+        <v>24545</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>982</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44460</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="L5" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="M5" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>3120</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>5333</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3120</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5333</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44343</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L9" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M9" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44193</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,17 +1080,17 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3067</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44460</v>
+        <v>44319</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="L11" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M11" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44474</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="L12" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="M12" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1440</v>
+        <v>4000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M13" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44474</v>
+        <v>44193</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="L14" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="M14" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>3067</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1440,13 +1440,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L15" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M15" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L2" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M2" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44460</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="L3" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="M3" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3067</v>
       </c>
       <c r="Q3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3120</v>
+        <v>5333</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="L6" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="M6" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5333</v>
+        <v>1400</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44343</v>
+        <v>44474</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="L9" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="M9" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1440</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44221</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L11" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M11" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44474</v>
+        <v>44343</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="L12" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="M12" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4000</v>
+        <v>1440</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L13" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M13" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3067</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1440,13 +1440,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44460</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="L2" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="M2" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>3067</v>
       </c>
       <c r="Q2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44343</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="L3" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="M3" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3067</v>
+        <v>1440</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3120</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="L5" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="n">
-        <v>80000</v>
+        <v>24545</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5333</v>
+        <v>982</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44460</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="L6" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M6" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1400</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,36 +929,36 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K8" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q8" t="n">
         <v>15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44474</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>24000</v>
+        <v>78000</v>
       </c>
       <c r="L10" t="n">
-        <v>25000</v>
+        <v>78000</v>
       </c>
       <c r="M10" t="n">
-        <v>24545</v>
+        <v>78000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>982</v>
+        <v>3120</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,32 +1149,32 @@
         </is>
       </c>
       <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q11" t="n">
         <v>15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>75000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>75000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>75000</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44474</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="L12" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="M12" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1440</v>
+        <v>4000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L13" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M13" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,11 +1361,11 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
         <v>75000</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1440,13 +1440,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>46000</v>
+        <v>78000</v>
       </c>
       <c r="L2" t="n">
-        <v>46000</v>
+        <v>78000</v>
       </c>
       <c r="M2" t="n">
-        <v>46000</v>
+        <v>78000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3067</v>
+        <v>3120</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L3" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M3" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L5" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44460</v>
+        <v>44343</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="L6" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="M6" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>1440</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L8" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M8" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,17 +1008,17 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>3067</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L10" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M10" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3120</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L11" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M11" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5333</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="n">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44474</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K13" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L13" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1368,13 +1368,13 @@
         <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44474</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="L2" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="M2" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3120</v>
+        <v>3800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L3" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M3" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5333</v>
+        <v>3067</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>24545</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>982</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44421</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44460</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3067</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
         <v>75000</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44474</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>24000</v>
+        <v>78000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>78000</v>
       </c>
       <c r="M13" t="n">
-        <v>24545</v>
+        <v>78000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>982</v>
+        <v>3120</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q14" t="n">
         <v>15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M14" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44474</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44544</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
         <v>75000</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44474</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="L13" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3120</v>
+        <v>4000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="L14" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="M14" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5333</v>
+        <v>3120</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,43 +1428,115 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>15</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>Americana (o)</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>35000</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>35000</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M16" t="n">
         <v>35000</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1400</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>25</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44474</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="L14" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="M14" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3120</v>
+        <v>4000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="L15" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="M15" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5333</v>
+        <v>3120</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,43 +1500,115 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>Inferno</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>15</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>Americana (o)</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>35000</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>35000</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M17" t="n">
         <v>35000</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>$/caja 25 kilos</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1400</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>25</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44460</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44326</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,17 +576,17 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="L3" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="M3" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3067</v>
+        <v>1200</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44474</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>24000</v>
+        <v>100000</v>
       </c>
       <c r="L4" t="n">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M4" t="n">
-        <v>24545</v>
+        <v>100000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>982</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L5" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M5" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L6" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M6" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44544</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
         <v>35000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
         <v>75000</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44544</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44474</v>
+        <v>44343</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="L14" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="M14" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>1440</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="L15" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="M15" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3120</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44446</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>80000</v>
+        <v>24545</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5333</v>
+        <v>982</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44340</v>
+        <v>44193</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1584,17 +1584,17 @@
         <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>3067</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44581</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>680</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
         <v>75000</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44544</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44343</v>
+        <v>44544</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44460</v>
+        <v>44343</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="L15" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="M15" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>1440</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M16" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44193</v>
+        <v>44221</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,34 +1581,106 @@
         </is>
       </c>
       <c r="J17" t="n">
+        <v>22</v>
+      </c>
+      <c r="K17" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>24545</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>982</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>25</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E18" t="n">
+        <v>13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>46000</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>46000</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M18" t="n">
         <v>46000</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>3067</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>15</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44326</v>
+        <v>44544</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44474</v>
+        <v>44343</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="L4" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="M4" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>1440</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L5" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L6" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M6" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5333</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,29 +996,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>680</v>
+        <v>5333</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44319</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L11" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M11" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44193</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>3067</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44544</v>
+        <v>44581</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44343</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>36000</v>
+        <v>24545</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1440</v>
+        <v>982</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44460</v>
+        <v>44449</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="L16" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="M16" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>982</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44193</v>
+        <v>44474</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="L18" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="M18" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3067</v>
+        <v>4000</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44544</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
         <v>35000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44343</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L4" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M4" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1440</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
         <v>75000</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K6" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="L6" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="M6" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44425</v>
+        <v>44460</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L7" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M7" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3120</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5333</v>
+        <v>1440</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44193</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,17 +1080,17 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>3067</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1800</v>
+        <v>680</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44193</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3067</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>680</v>
+        <v>3120</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M15" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>982</v>
+        <v>5333</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44449</v>
+        <v>44221</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L17" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M17" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>982</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44474</v>
+        <v>44544</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44474</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44460</v>
+        <v>44221</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>95000</v>
+        <v>24000</v>
       </c>
       <c r="L7" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>95000</v>
+        <v>24545</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>982</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44460</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="M8" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44343</v>
+        <v>44553</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="L9" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="M9" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44193</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,17 +1080,17 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L10" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M10" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44581</v>
+        <v>44544</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44474</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="L14" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="M14" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3120</v>
+        <v>1440</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5333</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44421</v>
+        <v>44193</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1512,17 +1512,17 @@
         <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3067</v>
       </c>
       <c r="Q16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L17" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M17" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>982</v>
+        <v>3200</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>78000</v>
+        <v>24000</v>
       </c>
       <c r="L2" t="n">
-        <v>78000</v>
+        <v>25000</v>
       </c>
       <c r="M2" t="n">
-        <v>78000</v>
+        <v>24545</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3120</v>
+        <v>982</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,29 +564,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5333</v>
+        <v>680</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44326</v>
+        <v>44474</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>680</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>982</v>
+        <v>5333</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44553</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,36 +1073,36 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15</v>
-      </c>
-      <c r="K10" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L11" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M11" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44544</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44474</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L13" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M13" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44343</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44544</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44193</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1512,17 +1512,17 @@
         <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="L16" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3067</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44449</v>
+        <v>44553</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K17" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="L17" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M17" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>1440</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44544</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>24545</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>982</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44581</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,25 +564,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>680</v>
+        <v>1800</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -720,17 +720,17 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3120</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44460</v>
+        <v>44581</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>680</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>1440</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L11" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M11" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L13" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M13" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,32 +1365,32 @@
         </is>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q14" t="n">
         <v>15</v>
-      </c>
-      <c r="K14" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M14" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44544</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>24545</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>982</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1512,13 +1512,13 @@
         <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44553</v>
+        <v>44193</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="L17" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="M17" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1800</v>
+        <v>3067</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44343</v>
+        <v>44421</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1440</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44544</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="L3" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="M3" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1800</v>
+        <v>3120</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44474</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L4" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M4" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>5333</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -720,17 +720,17 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1400</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44581</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44460</v>
+        <v>44319</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44343</v>
+        <v>44221</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L10" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>36000</v>
+        <v>24545</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1440</v>
+        <v>982</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44581</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>680</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44449</v>
+        <v>44544</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="L13" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="M13" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3120</v>
+        <v>1440</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="L14" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M14" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5333</v>
+        <v>1800</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M15" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>982</v>
+        <v>3200</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
         <v>75000</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44193</v>
+        <v>44474</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K17" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="L17" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="M17" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3067</v>
+        <v>4000</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44421</v>
+        <v>44460</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="L3" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="M3" t="n">
-        <v>78000</v>
+        <v>95000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3120</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44319</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>5333</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L10" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M10" t="n">
-        <v>24545</v>
+        <v>35000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>982</v>
+        <v>1400</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44581</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>680</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>36000</v>
+        <v>24545</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1440</v>
+        <v>982</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1800</v>
+        <v>680</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44449</v>
+        <v>44544</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44474</v>
+        <v>44343</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="L17" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="M17" t="n">
-        <v>100000</v>
+        <v>36000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4000</v>
+        <v>1440</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44460</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="L18" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,17 +504,17 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3067</v>
       </c>
       <c r="Q2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44460</v>
+        <v>44553</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L3" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M3" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44460</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="M7" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1800</v>
+        <v>3120</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L8" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M8" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3120</v>
+        <v>5333</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L11" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M11" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>1440</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M13" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>982</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44581</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>680</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44544</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>24545</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>982</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44474</v>
+        <v>44421</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44343</v>
+        <v>44544</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44474</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M18" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44343</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="L2" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="M2" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3067</v>
+        <v>1440</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44553</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="L4" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="M4" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>680</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3120</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5333</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
         <v>30000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44581</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1152,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L11" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M11" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="L12" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="M12" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1440</v>
+        <v>3120</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>80000</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3200</v>
+        <v>5333</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44449</v>
+        <v>44553</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44544</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>24545</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>982</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44474</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>100000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4000</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1440</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44474</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L4" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M4" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>5333</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44544</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44460</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44221</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>24545</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>982</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44460</v>
+        <v>44581</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
         <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>680</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44319</v>
+        <v>44343</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>680</v>
+        <v>3067</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L12" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M12" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3120</v>
+        <v>3200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L13" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M13" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5333</v>
+        <v>5000</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44553</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44544</v>
+        <v>44474</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44449</v>
+        <v>44553</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K16" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M16" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L17" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M17" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44221</v>
+        <v>44421</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L3" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M3" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3120</v>
+        <v>5333</v>
       </c>
       <c r="Q3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L4" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M4" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5333</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44544</v>
+        <v>44474</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K5" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="L5" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="M5" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1400</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44460</v>
+        <v>44581</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>680</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>982</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44581</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>680</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44343</v>
+        <v>44319</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1440</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44193</v>
+        <v>44544</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L10" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M10" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K11" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L11" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M11" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L12" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M12" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44193</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="L13" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="M13" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5000</v>
+        <v>3067</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44474</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>100000</v>
+        <v>24545</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4000</v>
+        <v>982</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44553</v>
+        <v>44340</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L16" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44421</v>
+        <v>44343</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>1440</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3120</v>
+        <v>680</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>80000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5333</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,11 +641,11 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>75000</v>
@@ -658,7 +658,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44474</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44581</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>78000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>3120</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L8" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M8" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>5333</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44319</v>
+        <v>44474</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44544</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="L11" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>45000</v>
+        <v>24545</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1800</v>
+        <v>982</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44460</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L12" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M12" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44193</v>
+        <v>44343</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="L13" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="M13" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3067</v>
+        <v>1440</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44544</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M15" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44421</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1512,13 +1512,13 @@
         <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1584,13 +1584,13 @@
         <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1440</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>680</v>
+        <v>3120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>80000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>5333</v>
       </c>
       <c r="Q3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L4" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M4" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44553</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>1800</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44544</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3120</v>
+        <v>680</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5333</v>
+        <v>3067</v>
       </c>
       <c r="Q8" t="n">
         <v>15</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44474</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M11" t="n">
-        <v>24545</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>982</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44460</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="M12" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M13" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1440</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44460</v>
+        <v>44343</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="L15" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="M15" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3800</v>
+        <v>1440</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44340</v>
+        <v>44221</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>24545</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>982</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44425</v>
+        <v>44319</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5333</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44474</v>
+        <v>44544</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44553</v>
+        <v>44474</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K5" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="L5" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="M5" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44544</v>
+        <v>44221</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L6" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M6" t="n">
-        <v>35000</v>
+        <v>24545</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1400</v>
+        <v>982</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>680</v>
+        <v>3067</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44581</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3067</v>
+        <v>680</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44343</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L9" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M9" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,36 +1145,36 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q11" t="n">
         <v>15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44449</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="L15" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="M15" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1440</v>
+        <v>3120</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,32 +1509,32 @@
         </is>
       </c>
       <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q16" t="n">
         <v>15</v>
-      </c>
-      <c r="K16" t="n">
-        <v>75000</v>
-      </c>
-      <c r="L16" t="n">
-        <v>75000</v>
-      </c>
-      <c r="M16" t="n">
-        <v>75000</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44221</v>
+        <v>44421</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44319</v>
+        <v>44553</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K18" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M18" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44544</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
         <v>35000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44544</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44474</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4000</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L6" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M6" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44193</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,17 +864,17 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>680</v>
+        <v>3120</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
         <v>75000</v>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44460</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L12" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M12" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3120</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44446</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44421</v>
+        <v>44581</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>680</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44553</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>45000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1800</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44544</v>
+        <v>44460</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M3" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1400</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44460</v>
+        <v>44193</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="L6" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="M6" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3800</v>
+        <v>3067</v>
       </c>
       <c r="Q6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L8" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M8" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3120</v>
+        <v>5000</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5333</v>
+        <v>1440</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L11" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44544</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M13" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44449</v>
+        <v>44581</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>680</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44446</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="M16" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>3120</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>680</v>
+        <v>5333</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44221</v>
+        <v>44421</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44581</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -497,20 +497,20 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>680</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44460</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>95000</v>
+        <v>24000</v>
       </c>
       <c r="L3" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="n">
-        <v>95000</v>
+        <v>24545</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>982</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3067</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3200</v>
+        <v>1440</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44343</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="L9" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="M9" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1440</v>
+        <v>3067</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44474</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>24000</v>
+        <v>78000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>78000</v>
       </c>
       <c r="M11" t="n">
-        <v>24545</v>
+        <v>78000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>982</v>
+        <v>3120</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,32 +1221,32 @@
         </is>
       </c>
       <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q12" t="n">
         <v>15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44544</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44474</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44581</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>680</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L17" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M17" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5333</v>
+        <v>3800</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44421</v>
+        <v>44544</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44581</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,25 +492,25 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>680</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3120</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,17 +936,17 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>3067</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44544</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
         <v>30000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="L11" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="M11" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3120</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="L12" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>80000</v>
+        <v>24545</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5333</v>
+        <v>982</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44460</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44474</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44474</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L15" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M15" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44460</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="L17" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="M17" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M2" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44544</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44343</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44581</v>
+        <v>44460</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>95000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>95000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>95000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>680</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5333</v>
+        <v>680</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L8" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M8" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3067</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,29 +996,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L9" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M9" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>3120</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L11" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M11" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44221</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>24545</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>982</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44460</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44474</v>
+        <v>44221</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K15" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="L15" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="M15" t="n">
-        <v>100000</v>
+        <v>24545</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4000</v>
+        <v>982</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44474</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44449</v>
+        <v>44193</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L17" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M17" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3200</v>
+        <v>3067</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
         <v>75000</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44544</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44343</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44460</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
         <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>95000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>680</v>
+        <v>5333</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>3067</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44544</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,29 +996,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3120</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5333</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>24545</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>982</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44460</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44474</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>100000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M15" t="n">
-        <v>24545</v>
+        <v>100000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>982</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44474</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L17" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M17" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3067</v>
+        <v>3200</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,11 +1649,11 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
         <v>75000</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44544</v>
+        <v>44193</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M3" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1400</v>
+        <v>3067</v>
       </c>
       <c r="Q3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44343</v>
+        <v>44474</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="L4" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="M4" t="n">
-        <v>36000</v>
+        <v>100000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1440</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44460</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="L5" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44544</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44581</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,20 +857,20 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3120</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="L11" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>80000</v>
+        <v>24545</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5333</v>
+        <v>982</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44343</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>24000</v>
+        <v>78000</v>
       </c>
       <c r="L15" t="n">
-        <v>25000</v>
+        <v>78000</v>
       </c>
       <c r="M15" t="n">
-        <v>24545</v>
+        <v>78000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>982</v>
+        <v>3120</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44474</v>
+        <v>44446</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L16" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M16" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4000</v>
+        <v>5333</v>
       </c>
       <c r="Q16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44193</v>
+        <v>44581</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3067</v>
+        <v>680</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1656,13 +1656,13 @@
         <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3067</v>
+        <v>5000</v>
       </c>
       <c r="Q3" t="n">
         <v>15</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44474</v>
+        <v>44553</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="L4" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="M4" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L5" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44544</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>35000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44460</v>
+        <v>44544</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>1440</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44343</v>
+        <v>44193</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="L14" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="M14" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1440</v>
+        <v>3067</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3120</v>
+        <v>680</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,20 +1509,20 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M16" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5333</v>
+        <v>4000</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>680</v>
+        <v>3120</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,32 +1653,32 @@
         </is>
       </c>
       <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q18" t="n">
         <v>15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L18" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44553</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L6" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M6" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,32 +861,32 @@
         </is>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44544</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>3067</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44460</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44343</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1440</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44474</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>24000</v>
+        <v>100000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M11" t="n">
-        <v>24545</v>
+        <v>100000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>982</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44581</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>680</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44343</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,13 +1296,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44193</v>
+        <v>44460</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="L14" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="M14" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3067</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44581</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>680</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44474</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="L16" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>100000</v>
+        <v>24545</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4000</v>
+        <v>982</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K17" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="L17" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="M17" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3120</v>
+        <v>1800</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44446</v>
+        <v>44544</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5333</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="L2" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M2" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44449</v>
+        <v>44544</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,29 +564,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44221</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000</v>
+        <v>24545</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>982</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3120</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5333</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K8" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="L8" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="M8" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3067</v>
+        <v>1800</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44474</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L11" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M11" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44581</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44193</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="M13" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1440</v>
+        <v>3067</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44460</v>
+        <v>44446</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>95000</v>
+        <v>78000</v>
       </c>
       <c r="L14" t="n">
-        <v>95000</v>
+        <v>78000</v>
       </c>
       <c r="M14" t="n">
-        <v>95000</v>
+        <v>78000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>3120</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q15" t="n">
         <v>15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>75000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>75000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>75000</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L16" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M16" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44553</v>
+        <v>44343</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="L17" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M17" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44544</v>
+        <v>44425</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44474</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="L2" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="M2" t="n">
-        <v>100000</v>
+        <v>46000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>4000</v>
+        <v>3067</v>
       </c>
       <c r="Q2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44544</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M3" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L4" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M4" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>982</v>
+        <v>5333</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44581</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>24545</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>680</v>
+        <v>982</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,36 +857,36 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
+        <v>20</v>
+      </c>
+      <c r="K7" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q7" t="n">
         <v>15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
         <v>75000</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44460</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L11" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M11" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44581</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>680</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44193</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3067</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44446</v>
+        <v>44544</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3120</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5333</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44460</v>
+        <v>44319</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="L16" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>95000</v>
+        <v>30000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44425</v>
+        <v>44474</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,17 +504,17 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>46000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3067</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="L3" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="M3" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3120</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L5" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>982</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44221</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="L6" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M6" t="n">
-        <v>80000</v>
+        <v>24545</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3200</v>
+        <v>982</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L7" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M7" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44193</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,17 +1008,17 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>3067</v>
       </c>
       <c r="Q9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44425</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44460</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="L11" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="M11" t="n">
-        <v>95000</v>
+        <v>36000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44581</v>
+        <v>44544</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,25 +1212,25 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,36 +1433,36 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
+        <v>20</v>
+      </c>
+      <c r="K15" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q15" t="n">
         <v>15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44319</v>
+        <v>44581</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>680</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="L17" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="M17" t="n">
-        <v>36000</v>
+        <v>78000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1440</v>
+        <v>3120</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44474</v>
+        <v>44446</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L18" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M18" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4000</v>
+        <v>5333</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44221</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L5" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M5" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L6" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M6" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>982</v>
+        <v>5333</v>
       </c>
       <c r="Q6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44460</v>
+        <v>44193</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="L7" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="M7" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>3067</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44460</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44193</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,17 +1008,17 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3067</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44343</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L11" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M11" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1440</v>
+        <v>3200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>30000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L14" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M14" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3200</v>
+        <v>1440</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
         <v>75000</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44581</v>
+        <v>44544</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3120</v>
+        <v>680</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>80000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5333</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44221</v>
+        <v>44544</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>24545</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>982</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L4" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M4" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3120</v>
+        <v>5333</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5333</v>
+        <v>680</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44193</v>
+        <v>44460</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="L7" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="M7" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3067</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44460</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="L8" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="M8" t="n">
-        <v>95000</v>
+        <v>46000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>3067</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44221</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="L10" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>45000</v>
+        <v>24545</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1800</v>
+        <v>982</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M11" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3200</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1217,11 +1217,11 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
         <v>75000</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44343</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L14" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M14" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1440</v>
+        <v>3200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,11 +1433,11 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
         <v>75000</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44544</v>
+        <v>44340</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
         <v>35000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44581</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>680</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44544</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44474</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3120</v>
+        <v>680</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5333</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44581</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44460</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L7" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M7" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L8" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M8" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3067</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,36 +1001,36 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q9" t="n">
         <v>15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L10" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M10" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44343</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L11" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>36000</v>
+        <v>24545</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1440</v>
+        <v>982</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44343</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="L14" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M14" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44449</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L15" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M15" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44544</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
         <v>35000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L17" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M17" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44319</v>
+        <v>44446</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L18" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M18" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1200</v>
+        <v>5333</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44544</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44474</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>78000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>680</v>
+        <v>3120</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>5333</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44581</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>680</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44460</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="M7" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44193</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>3067</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44460</v>
+        <v>44221</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>95000</v>
+        <v>24000</v>
       </c>
       <c r="L10" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="M10" t="n">
-        <v>95000</v>
+        <v>24545</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>982</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44343</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M11" t="n">
-        <v>24545</v>
+        <v>36000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>982</v>
+        <v>1440</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44474</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L14" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M14" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44544</v>
+        <v>44340</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
         <v>35000</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L18" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M18" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44319</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44326</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44581</v>
+        <v>44544</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,25 +636,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44343</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>1440</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>3120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1800</v>
+        <v>5333</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44460</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44553</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K11" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M11" t="n">
-        <v>24545</v>
+        <v>45000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>982</v>
+        <v>1800</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44460</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="M13" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1440</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44474</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44193</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="L15" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="M15" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1200</v>
+        <v>3067</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44544</v>
+        <v>44581</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K17" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="L17" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="M17" t="n">
-        <v>78000</v>
+        <v>100000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3120</v>
+        <v>4000</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44446</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>80000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>80000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5333</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44319</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="L2" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="M2" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1200</v>
+        <v>3120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44326</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44544</v>
+        <v>44343</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44343</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1440</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M9" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1073,24 +1073,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="L11" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="M11" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1800</v>
+        <v>680</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44221</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44460</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44421</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1368,13 +1368,13 @@
         <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44193</v>
+        <v>44474</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K15" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="L15" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="M15" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3067</v>
+        <v>4000</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44581</v>
+        <v>44544</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,25 +1500,25 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L16" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44474</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L17" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M17" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>24000</v>
+        <v>75000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>75000</v>
       </c>
       <c r="M18" t="n">
-        <v>24545</v>
+        <v>75000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>982</v>
+        <v>5000</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3120</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5333</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44343</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,11 +785,11 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>75000</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44544</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="L9" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="M9" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44581</v>
+        <v>44460</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
         <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>17000</v>
+        <v>95000</v>
       </c>
       <c r="L11" t="n">
-        <v>17000</v>
+        <v>95000</v>
       </c>
       <c r="M11" t="n">
-        <v>17000</v>
+        <v>95000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>680</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44221</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>24545</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>982</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,25 +1284,25 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>680</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44474</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L15" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M15" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4000</v>
+        <v>5333</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44544</v>
+        <v>44421</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44449</v>
+        <v>44193</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L17" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M17" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3200</v>
+        <v>3067</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44449</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5000</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="M2" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1800</v>
+        <v>3120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,32 +573,32 @@
         </is>
       </c>
       <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>75000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>75000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>75000</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3200</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L6" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M6" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L7" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M7" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44319</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M8" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44474</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44343</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="L10" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="M10" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44460</v>
+        <v>44474</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="L11" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="M11" t="n">
-        <v>95000</v>
+        <v>100000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,24 +1289,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="L13" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="M13" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>680</v>
+        <v>3067</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44446</v>
+        <v>44221</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>78000</v>
+        <v>24000</v>
       </c>
       <c r="L14" t="n">
-        <v>78000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>78000</v>
+        <v>24545</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3120</v>
+        <v>982</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5333</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44421</v>
+        <v>44460</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44193</v>
+        <v>44544</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>46000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3067</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44221</v>
+        <v>44343</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M18" t="n">
-        <v>24545</v>
+        <v>36000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>982</v>
+        <v>1440</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3120</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5333</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44581</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>680</v>
+        <v>3200</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -785,24 +785,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L6" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M6" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44544</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44474</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="L9" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="M9" t="n">
-        <v>35000</v>
+        <v>100000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44343</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="L10" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M10" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44474</v>
+        <v>44460</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>100000</v>
+        <v>95000</v>
       </c>
       <c r="L11" t="n">
-        <v>100000</v>
+        <v>95000</v>
       </c>
       <c r="M11" t="n">
-        <v>100000</v>
+        <v>95000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44193</v>
+        <v>44581</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1289,24 +1289,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="L13" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="M13" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3067</v>
+        <v>680</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>24000</v>
+        <v>78000</v>
       </c>
       <c r="L14" t="n">
-        <v>25000</v>
+        <v>78000</v>
       </c>
       <c r="M14" t="n">
-        <v>24545</v>
+        <v>78000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>982</v>
+        <v>3120</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,32 +1437,32 @@
         </is>
       </c>
       <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>5333</v>
+      </c>
+      <c r="Q15" t="n">
         <v>15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>75000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>75000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>75000</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44460</v>
+        <v>44421</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44544</v>
+        <v>44193</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>46000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>3067</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44343</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>36000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1440</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>78000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3120</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>80000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>5333</v>
+        <v>3200</v>
       </c>
       <c r="Q3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>680</v>
+        <v>3067</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44581</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="L6" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="M6" t="n">
-        <v>80000</v>
+        <v>17000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3200</v>
+        <v>680</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L7" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M7" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L9" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M9" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="L10" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="M10" t="n">
-        <v>45000</v>
+        <v>80000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1800</v>
+        <v>5333</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44474</v>
+        <v>44221</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K11" t="n">
-        <v>100000</v>
+        <v>24000</v>
       </c>
       <c r="L11" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
       <c r="M11" t="n">
-        <v>100000</v>
+        <v>24545</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>982</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44193</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,17 +1296,17 @@
         <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>46000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3067</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L14" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M14" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1440,13 +1440,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M15" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44460</v>
+        <v>44544</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="L16" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="M16" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44544</v>
+        <v>44319</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="M2" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1800</v>
+        <v>3120</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>80000</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>5333</v>
       </c>
       <c r="Q3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
         <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44581</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>680</v>
+        <v>3200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44474</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -857,24 +857,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="L7" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="M7" t="n">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3120</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5333</v>
+        <v>1800</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44474</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>24000</v>
+        <v>100000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M11" t="n">
-        <v>24545</v>
+        <v>100000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>982</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44193</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,17 +1296,17 @@
         <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>3067</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44460</v>
+        <v>44221</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>95000</v>
+        <v>24000</v>
       </c>
       <c r="L14" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="M14" t="n">
-        <v>95000</v>
+        <v>24545</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>982</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1440,13 +1440,13 @@
         <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44544</v>
+        <v>44460</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>95000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>3800</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44319</v>
+        <v>44544</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44193</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="M2" t="n">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1800</v>
+        <v>3067</v>
       </c>
       <c r="Q2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,24 +641,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L4" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M4" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5000</v>
+        <v>3120</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44193</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M5" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3067</v>
+        <v>5333</v>
       </c>
       <c r="Q5" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44474</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L7" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M7" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44425</v>
+        <v>44221</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K8" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L8" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M8" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="L9" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="M9" t="n">
-        <v>78000</v>
+        <v>36000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3120</v>
+        <v>1440</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>5333</v>
+        <v>3000</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44221</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M11" t="n">
-        <v>24545</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>982</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>45000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44474</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44460</v>
+        <v>44544</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K14" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="L14" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="M14" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44544</v>
+        <v>44449</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="L16" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="M16" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44343</v>
+        <v>44460</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="L18" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="M18" t="n">
-        <v>36000</v>
+        <v>95000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1440</v>
+        <v>3800</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44193</v>
+        <v>44343</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="L2" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="M2" t="n">
-        <v>46000</v>
+        <v>36000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3067</v>
+        <v>1440</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44221</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>24000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>24545</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>982</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44581</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>78000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3120</v>
+        <v>680</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L5" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M5" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5333</v>
+        <v>1200</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44581</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44460</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="L7" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="M7" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44221</v>
+        <v>44553</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K8" t="n">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="L8" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M8" t="n">
-        <v>24545</v>
+        <v>45000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>982</v>
+        <v>1800</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="L9" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="M9" t="n">
-        <v>36000</v>
+        <v>75000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1440</v>
+        <v>3000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44474</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="L11" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M11" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="M12" t="n">
-        <v>45000</v>
+        <v>78000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1800</v>
+        <v>3120</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44474</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="L13" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="M13" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4000</v>
+        <v>5333</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44544</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
         <v>35000</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K15" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="L15" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="M15" t="n">
-        <v>35000</v>
+        <v>80000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1400</v>
+        <v>3200</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="Q16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44449</v>
+        <v>44193</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="L17" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="M17" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>3067</v>
       </c>
       <c r="Q17" t="n">
         <v>15</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44460</v>
+        <v>44544</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="L18" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="M18" t="n">
-        <v>95000</v>
+        <v>35000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44343</v>
+        <v>44553</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>36000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1440</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44221</v>
+        <v>44474</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>24000</v>
+        <v>100000</v>
       </c>
       <c r="L3" t="n">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="M3" t="n">
-        <v>24545</v>
+        <v>100000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>982</v>
+        <v>4000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44581</v>
+        <v>44326</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44221</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M5" t="n">
-        <v>30000</v>
+        <v>24545</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1200</v>
+        <v>982</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>78000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>3120</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44460</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="L7" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="M7" t="n">
-        <v>95000</v>
+        <v>80000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>5333</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44553</v>
+        <v>44581</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="L8" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="M8" t="n">
-        <v>45000</v>
+        <v>17000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1800</v>
+        <v>680</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44193</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,17 +1080,17 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="L10" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="M10" t="n">
-        <v>75000</v>
+        <v>46000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3000</v>
+        <v>3067</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44474</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="L11" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="M11" t="n">
-        <v>100000</v>
+        <v>35000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4000</v>
+        <v>1400</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L12" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M12" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L13" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M13" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5333</v>
+        <v>1440</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44193</v>
+        <v>44460</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="L17" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="M17" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3067</v>
+        <v>3800</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44553</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>45000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44474</v>
+        <v>44460</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>100000</v>
+        <v>95000</v>
       </c>
       <c r="L3" t="n">
-        <v>100000</v>
+        <v>95000</v>
       </c>
       <c r="M3" t="n">
-        <v>100000</v>
+        <v>95000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44326</v>
+        <v>44343</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L4" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M4" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44221</v>
+        <v>44581</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M5" t="n">
-        <v>24545</v>
+        <v>17000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>982</v>
+        <v>680</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="L6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="M6" t="n">
-        <v>78000</v>
+        <v>30000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3120</v>
+        <v>1200</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="L7" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M7" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5333</v>
+        <v>1800</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44581</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L8" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M8" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>680</v>
+        <v>1400</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44193</v>
+        <v>44474</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="L10" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="M10" t="n">
-        <v>46000</v>
+        <v>100000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3067</v>
+        <v>4000</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44544</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
         <v>35000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L12" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M12" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L13" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M13" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44449</v>
+        <v>44193</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="L15" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="M15" t="n">
-        <v>80000</v>
+        <v>46000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3200</v>
+        <v>3067</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1505,24 +1505,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44460</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44544</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>35000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1400</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44544</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44460</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44581</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="L5" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>680</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L6" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M6" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44553</v>
+        <v>44460</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="L7" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="M7" t="n">
-        <v>45000</v>
+        <v>95000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44474</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44544</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L11" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M11" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="L12" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="M12" t="n">
-        <v>78000</v>
+        <v>80000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3120</v>
+        <v>5333</v>
       </c>
       <c r="Q12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44474</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="L13" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>5333</v>
+        <v>4000</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44581</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>75000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3000</v>
+        <v>680</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44544</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="M2" t="n">
-        <v>35000</v>
+        <v>75000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L4" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M4" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44460</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L5" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M5" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44474</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K6" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="L6" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="M6" t="n">
-        <v>45000</v>
+        <v>100000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44460</v>
+        <v>44221</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>95000</v>
+        <v>24000</v>
       </c>
       <c r="L7" t="n">
-        <v>95000</v>
+        <v>25000</v>
       </c>
       <c r="M7" t="n">
-        <v>95000</v>
+        <v>24545</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3800</v>
+        <v>982</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L8" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M8" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,36 +1001,36 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
+        <v>20</v>
+      </c>
+      <c r="K9" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q9" t="n">
         <v>15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44553</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44544</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="L11" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="M11" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3120</v>
+        <v>1400</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L12" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M12" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>5333</v>
+        <v>1440</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44474</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L13" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M13" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44581</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>680</v>
+        <v>1200</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44193</v>
+        <v>44581</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="L15" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="M15" t="n">
-        <v>46000</v>
+        <v>17000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3067</v>
+        <v>680</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="L16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="M16" t="n">
-        <v>80000</v>
+        <v>75000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L17" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M17" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="Q17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44221</v>
+        <v>44193</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>24000</v>
+        <v>46000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>46000</v>
       </c>
       <c r="M18" t="n">
-        <v>24545</v>
+        <v>46000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>982</v>
+        <v>3067</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44544</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44343</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="L4" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="M4" t="n">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5333</v>
+        <v>1440</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44460</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="L5" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44474</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="L6" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="M6" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44460</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>24000</v>
+        <v>95000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>95000</v>
       </c>
       <c r="M7" t="n">
-        <v>24545</v>
+        <v>95000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>982</v>
+        <v>3800</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44544</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="L11" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="M11" t="n">
-        <v>35000</v>
+        <v>78000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1400</v>
+        <v>3120</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="L12" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="M12" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1440</v>
+        <v>5333</v>
       </c>
       <c r="Q12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44474</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44581</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>680</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44581</v>
+        <v>44193</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>46000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>680</v>
+        <v>3067</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>80000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,36 +1577,36 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q17" t="n">
         <v>15</v>
-      </c>
-      <c r="K17" t="n">
-        <v>35000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M17" t="n">
-        <v>35000</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>1400</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>25</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44193</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>46000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>46000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>46000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3067</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M2" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L3" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M3" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3120</v>
+        <v>3000</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>80000</v>
@@ -658,7 +658,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>5333</v>
+        <v>3200</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44460</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,24 +713,24 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="L5" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="M5" t="n">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44474</v>
+        <v>44553</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="L6" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="M6" t="n">
-        <v>100000</v>
+        <v>45000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44221</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>24000</v>
+        <v>78000</v>
       </c>
       <c r="L7" t="n">
-        <v>25000</v>
+        <v>78000</v>
       </c>
       <c r="M7" t="n">
-        <v>24545</v>
+        <v>78000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>982</v>
+        <v>3120</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>80000</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3200</v>
+        <v>5333</v>
       </c>
       <c r="Q8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1001,24 +1001,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="L9" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="M9" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44553</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44544</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L11" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M11" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44343</v>
+        <v>44544</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="L12" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="M12" t="n">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44460</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="L13" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="M13" t="n">
-        <v>30000</v>
+        <v>95000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44193</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="L14" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="M14" t="n">
-        <v>30000</v>
+        <v>46000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1200</v>
+        <v>3067</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44581</v>
+        <v>44343</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="L15" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="M15" t="n">
-        <v>17000</v>
+        <v>36000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>680</v>
+        <v>1440</v>
       </c>
       <c r="Q15" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44340</v>
+        <v>44581</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="L17" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M17" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1400</v>
+        <v>680</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44193</v>
+        <v>44221</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1653,20 +1653,20 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>46000</v>
+        <v>24000</v>
       </c>
       <c r="L18" t="n">
-        <v>46000</v>
+        <v>25000</v>
       </c>
       <c r="M18" t="n">
-        <v>46000</v>
+        <v>24545</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3067</v>
+        <v>982</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44460</v>
+        <v>45271</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="L13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="M13" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44193</v>
+        <v>44460</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="L14" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="M14" t="n">
-        <v>46000</v>
+        <v>95000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3067</v>
+        <v>3800</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44343</v>
+        <v>44193</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="L15" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="M15" t="n">
-        <v>36000</v>
+        <v>46000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1440</v>
+        <v>3067</v>
       </c>
       <c r="Q15" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44343</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="L16" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="M16" t="n">
-        <v>75000</v>
+        <v>36000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3000</v>
+        <v>1440</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44581</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="L17" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="M17" t="n">
-        <v>17000</v>
+        <v>75000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>680</v>
+        <v>3000</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44221</v>
+        <v>44581</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L18" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M18" t="n">
-        <v>24545</v>
+        <v>17000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,12 +1675,84 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>982</v>
+        <v>680</v>
       </c>
       <c r="Q18" t="n">
         <v>25</v>
       </c>
       <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>22</v>
+      </c>
+      <c r="K19" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>24545</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>982</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>25</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>45271</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M2" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44544</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="L3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="M3" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44474</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="L4" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="M4" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -713,11 +713,11 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
         <v>75000</v>
@@ -730,7 +730,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="Q5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44553</v>
+        <v>44343</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="L6" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M6" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="L7" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="M7" t="n">
-        <v>78000</v>
+        <v>35000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3120</v>
+        <v>1400</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44460</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="L8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="M8" t="n">
-        <v>80000</v>
+        <v>95000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>5333</v>
+        <v>3800</v>
       </c>
       <c r="Q8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44474</v>
+        <v>44319</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="L9" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="M9" t="n">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="L10" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="M10" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,36 +1145,36 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q11" t="n">
         <v>15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>$/caja 25 kilos</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>1200</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44544</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L12" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M12" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45271</v>
+        <v>44221</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K13" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="L13" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M13" t="n">
-        <v>45000</v>
+        <v>24545</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1800</v>
+        <v>982</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44460</v>
+        <v>44446</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>95000</v>
+        <v>78000</v>
       </c>
       <c r="L14" t="n">
-        <v>95000</v>
+        <v>78000</v>
       </c>
       <c r="M14" t="n">
-        <v>95000</v>
+        <v>78000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3800</v>
+        <v>3120</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44193</v>
+        <v>44446</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="L15" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="M15" t="n">
-        <v>46000</v>
+        <v>80000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3067</v>
+        <v>5333</v>
       </c>
       <c r="Q15" t="n">
         <v>15</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44343</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L16" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M16" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1440</v>
+        <v>1200</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44221</v>
+        <v>44193</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K19" t="n">
-        <v>24000</v>
+        <v>46000</v>
       </c>
       <c r="L19" t="n">
-        <v>25000</v>
+        <v>46000</v>
       </c>
       <c r="M19" t="n">
-        <v>24545</v>
+        <v>46000</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>982</v>
+        <v>3067</v>
       </c>
       <c r="Q19" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Ají.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44460</v>
+        <v>45274</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>95000</v>
+        <v>50000</v>
       </c>
       <c r="L8" t="n">
-        <v>95000</v>
+        <v>50000</v>
       </c>
       <c r="M8" t="n">
-        <v>95000</v>
+        <v>50000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44319</v>
+        <v>45274</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Chilena(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,13 +1008,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="L9" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="M9" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>45274</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,32 +1077,32 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K10" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="L10" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="M10" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44460</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="L11" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="M11" t="n">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="Q11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Inferno</t>
+          <t>Americana (o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="L12" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M12" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44221</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="L13" t="n">
-        <v>25000</v>
+        <v>80000</v>
       </c>
       <c r="M13" t="n">
-        <v>24545</v>
+        <v>80000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>982</v>
+        <v>3200</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1361,24 +1361,24 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K14" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="L14" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="M14" t="n">
-        <v>78000</v>
+        <v>75000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3120</v>
+        <v>5000</v>
       </c>
       <c r="Q14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44446</v>
+        <v>44553</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="K15" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="L15" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="M15" t="n">
-        <v>80000</v>
+        <v>45000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>5333</v>
+        <v>1800</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44221</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K16" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M16" t="n">
-        <v>30000</v>
+        <v>24545</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1200</v>
+        <v>982</v>
       </c>
       <c r="Q16" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="L17" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="M17" t="n">
-        <v>75000</v>
+        <v>78000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3000</v>
+        <v>3120</v>
       </c>
       <c r="Q17" t="n">
         <v>25</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44581</v>
+        <v>44446</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Americana (o)</t>
+          <t>Inferno</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="M18" t="n">
-        <v>17000</v>
+        <v>80000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>680</v>
+        <v>5333</v>
       </c>
       <c r="Q18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44193</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
@@ -1728,31 +1728,247 @@
         <v>15</v>
       </c>
       <c r="K19" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>25</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>75000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>75000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>75000</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>25</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44581</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>30</v>
+      </c>
+      <c r="K21" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/caja 25 kilos</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>25</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E22" t="n">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100112021</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ají</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Americana (o)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
         <v>46000</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>46000</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M22" t="n">
         <v>46000</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P19" t="n">
+      <c r="P22" t="n">
         <v>3067</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q22" t="n">
         <v>15</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
